--- a/03_Analisis_de_Datos/Sprint_06/Unidad_02_Acceso_y_Procesado_de_Datos_Externos_APIs_y_Web_Scrapping/Practica_Obligatoria/peliculas_populares_usa_2023.xlsx
+++ b/03_Analisis_de_Datos/Sprint_06/Unidad_02_Acceso_y_Procesado_de_Datos_Externos_APIs_y_Web_Scrapping/Practica_Obligatoria/peliculas_populares_usa_2023.xlsx
@@ -467,58 +467,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>269509</v>
+        <v>1144962</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[16, 35, 10751, 14]</t>
+          <t>[28, 878]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Canterville Ghost</t>
+          <t>Transmorphers: Mech Beasts</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>El fantasma de Canterville</t>
+          <t>Transmorphers: Bestias mecánicas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Una familia estadounidense se muda a Canterville Chase, una mansión londinense que ha sido perseguida por el fantasma Sir Simon De Canterville durante 300 años.</t>
+          <t>20 años después de los eventos de Transmorphers, una especie más nueva y avanzada de robot alienígena desciende sobre una Tierra reconstruida, amenazando una vez más con destruir el planeta.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1144962</v>
+        <v>269509</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[28, 878]</t>
+          <t>[16, 35, 10751, 14]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Transmorphers: Mech Beasts</t>
+          <t>The Canterville Ghost</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Transmorphers: Bestias mecánicas</t>
+          <t>El fantasma de Canterville</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20 años después de los eventos de Transmorphers, una especie más nueva y avanzada de robot alienígena desciende sobre una Tierra reconstruida, amenazando una vez más con destruir el planeta.</t>
+          <t>Una familia estadounidense se muda a Canterville Chase, una mansión londinense que ha sido perseguida por el fantasma Sir Simon De Canterville durante 300 años.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>6.208</v>
       </c>
     </row>
     <row r="4">
@@ -574,255 +574,255 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.083</v>
+        <v>7.082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>569094</v>
+        <v>1145491</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[16, 28, 12, 878]</t>
+          <t>[28, 53]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
+          <t>Operation Black Ops</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Spider-Man: Cruzando el Multiverso</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Tras reencontrarse con Gwen Stacy, el amigable vecindario de Spider-Man de Brooklyn al completo es catapultado a través del Multiverso, donde se encuentra con un equipo de Spidermans encargados de proteger su propia existencia. Pero cuando los héroes se enfrentan sobre cómo manejar una nueva amenaza, Miles se encuentra enfrentado a las otras Arañas y debe redefinir lo que significa ser un héroe para poder salvar a la gente que más quiere.</t>
-        </is>
-      </c>
+          <t>Operation Black Ops</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1145491</v>
+        <v>502356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[28, 53]</t>
+          <t>[16, 10751, 12, 14, 35]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operation Black Ops</t>
+          <t>The Super Mario Bros. Movie</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Operation Black Ops</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Super Mario Bros: La película</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mientras trabajan en una avería subterránea, los fontaneros de Brooklyn, Mario y su hermano Luigi, viajan por una misteriosa tubería hasta un nuevo mundo mágico. Pero, cuando los hermanos se separan, Mario deberá emprender una épica misión para encontrar a Luigi.</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>7.642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>787699</v>
+        <v>569094</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[35, 10751, 14]</t>
+          <t>[16, 28, 12, 878]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Wonka</t>
+          <t>Spider-Man: Across the Spider-Verse</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wonka</t>
+          <t>Spider-Man: Cruzando el Multiverso</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Basada en el personaje que protagoniza "Charlie y la fábrica de chocolate", el libro infantil más emblemático de Roald Dahl y uno de los más vendidos de todos los tiempos, "Wonka" cuenta la historia de cómo el mayor inventor, mago y chocolatero del mundo se convirtió en el querido Willy Wonka que conocemos hoy en día.</t>
+          <t>Tras reencontrarse con Gwen Stacy, el amigable vecindario de Spider-Man de Brooklyn al completo es catapultado a través del Multiverso, donde se encuentra con un equipo de Spidermans encargados de proteger su propia existencia. Pero cuando los héroes se enfrentan sobre cómo manejar una nueva amenaza, Miles se encuentra enfrentado a las otras Arañas y debe redefinir lo que significa ser un héroe para poder salvar a la gente que más quiere.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7.117</v>
+        <v>8.353999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>667538</v>
+        <v>603692</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[878, 12, 28]</t>
+          <t>[28, 53, 80]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Transformers: Rise of the Beasts</t>
+          <t>John Wick: Chapter 4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Transformers: El despertar de las bestias</t>
+          <t>John Wick 4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cuando surge una nueva amenaza capaz de destruir todo el planeta, Optimus Prime y los Autobots deben unirse a una poderosa facción conocida como los Maximals. Con el destino de la humanidad en juego, los humanos Noah y Elena harán lo que sea necesario para ayudar a los Transformers mientras se involucran en la batalla final para salvar la Tierra.</t>
+          <t>John Wick descubre un camino para derrotar a la Alta Mesa. Pero para poder ganar su libertad, Wick deberá enfrentarse a un nuevo rival con poderosas alianzas en todo el mundo, capaz de convertir a viejos amigos en enemigos.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7.3</v>
+        <v>7.731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>603692</v>
+        <v>1059264</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[28, 53, 80]</t>
+          <t>[16, 12, 35, 10751]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>John Wick: Chapter 4</t>
+          <t>The Inseparables</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>John Wick 4</t>
+          <t>Héroes de Central Park</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>John Wick descubre un camino para derrotar a la Alta Mesa. Pero para poder ganar su libertad, Wick deberá enfrentarse a un nuevo rival con poderosas alianzas en todo el mundo, capaz de convertir a viejos amigos en enemigos.</t>
+          <t>Un títere de Don Quijote fugitivo con una imaginación ilimitada, y DJ Doggy Dog, un peluche abandonado que necesita un amigo, cruzarán sus caminos en Central Park y se unirán contra viento y marea para una épica aventura de amistad en la ciudad de Nueva York.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7.732</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1059264</v>
+        <v>299054</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[16, 12, 35, 10751]</t>
+          <t>[28, 12, 53]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The Inseparables</t>
+          <t>Expend4bles</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Héroes de Central Park</t>
+          <t>Los mercen4rios</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Un títere de Don Quijote fugitivo con una imaginación ilimitada, y DJ Doggy Dog, un peluche abandonado que necesita un amigo, cruzarán sus caminos en Central Park y se unirán contra viento y marea para una épica aventura de amistad en la ciudad de Nueva York.</t>
+          <t>Cuarta entrega de la saga Los Mercenarios. El veterano mercenario Barney “Esquizo” Ross (Sylvester Stallone) y su equipo de estrellas, formado por los hombres más duros (Jason Statham, Dolph Lundgren, 50 Cent, Megan Fox…), afrontan un nuevo desafío, en una trama cargada de acción. Para superarlo y salir airosos, deberán recurrir a su ingenio, experiencia y a la fuerza bruta que los caracteriza.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>502356</v>
+        <v>667538</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[16, 10751, 12, 14, 35]</t>
+          <t>[878, 12, 28]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>The Super Mario Bros. Movie</t>
+          <t>Transformers: Rise of the Beasts</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Super Mario Bros: La película</t>
+          <t>Transformers: El despertar de las bestias</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mientras trabajan en una avería subterránea, los fontaneros de Brooklyn, Mario y su hermano Luigi, viajan por una misteriosa tubería hasta un nuevo mundo mágico. Pero, cuando los hermanos se separan, Mario deberá emprender una épica misión para encontrar a Luigi.</t>
+          <t>Cuando surge una nueva amenaza capaz de destruir todo el planeta, Optimus Prime y los Autobots deben unirse a una poderosa facción conocida como los Maximals. Con el destino de la humanidad en juego, los humanos Noah y Elena harán lo que sea necesario para ayudar a los Transformers mientras se involucran en la batalla final para salvar la Tierra.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.642</v>
+        <v>7.293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>872585</v>
+        <v>787699</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[18, 36]</t>
+          <t>[35, 10751, 14]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Wonka</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Oppenheimer</t>
+          <t>Wonka</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Película sobre el físico J. Robert Oppenheimer y su papel como desarrollador de la bomba atómica. Basada en el libro 'American Prometheus: The Triumph and Tragedy of J. Robert Oppenheimer' de Kai Bird y Martin J. Sherwin.</t>
+          <t>Basada en el personaje que protagoniza "Charlie y la fábrica de chocolate", el libro infantil más emblemático de Roald Dahl y uno de los más vendidos de todos los tiempos, "Wonka" cuenta la historia de cómo el mayor inventor, mago y chocolatero del mundo se convirtió en el querido Willy Wonka que conocemos hoy en día.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>565770</v>
+        <v>346698</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[28, 878, 12]</t>
+          <t>[35, 12]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Blue Beetle</t>
+          <t>Barbie</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Blue Beetle</t>
+          <t>Barbie</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Un adolescente mexicano encuentra un escarabajo alienígena que le proporciona una armadura superpoderosa.</t>
+          <t>Barbie vive en Barbieland donde todo es ideal y lleno de música y color. Un buen día decide conocer el mundo real. Cuando el CEO de Mattel se entere, tratará de evitarlo a toda costa y devolver a Barbie a una caja.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6.7</v>
+        <v>7.003</v>
       </c>
     </row>
     <row r="15">
@@ -855,166 +855,170 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>346698</v>
+        <v>926393</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[35, 12]</t>
+          <t>[28, 53, 80]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Barbie</t>
+          <t>The Equalizer 3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Barbie</t>
+          <t>The Equalizer 3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Barbie vive en Barbieland donde todo es ideal y lleno de música y color. Un buen día decide conocer el mundo real. Cuando el CEO de Mattel se entere, tratará de evitarlo a toda costa y devolver a Barbie a una caja.</t>
+          <t>Desde que renunció a su vida como asesino del gobierno, Robert McCall (Denzel Washington) ha luchado para reconciliarse con las cosas horribles que ha hecho en el pasado y encuentra un extraño consuelo en hacer justicia en nombre de los oprimidos. Mientras se encuentra en su casa en el sur de Italia, descubre que sus nuevos amigos están bajo el control de los jefes del crimen local. A medida que los acontecimientos comienzan a complicarse, McCall entiende lo que tiene que hacer: convertirse en el protector de sus amigos enfrentándose a la temida mafia.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>609681</v>
+        <v>572802</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>[878, 12, 28]</t>
+          <t>[28, 12, 14]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The Marvels</t>
+          <t>Aquaman and the Lost Kingdom</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The Marvels</t>
+          <t>Aquaman y el reino perdido</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cuando sus obligaciones la envían a un agujero de gusano vinculado a un revolucionario kree, los poderes de Carol Danvers, la capitana Marvel, se entremezclan con los de Kamala Khan, también conocida como la Sra. Marvel y la sobrina de Carol, ahora astronauta de S.A.B.E.R., Monica Rambeau. Juntas, deberán salvar el universo como "The Marvels".</t>
+          <t>Al no poder derrotar a Aquaman la primera vez, Black Manta, todavía impulsado por la necesidad de vengar la muerte de su padre, no se detendrá ante nada para derrotar a Aquaman de una vez por todas. Esta vez Black Manta es más formidable que nunca y ejerce el poder del mítico Tridente Negro, que desata una fuerza antigua y malévola.  Para derrotarlo, Aquaman recurrirá a su hermano encarcelado Orm, el ex rey de la Atlántida, para forjar una alianza improbable. Juntos, deben dejar de lado sus diferencias para proteger su reino y salvar a la familia de Aquaman, y al mundo, de una destrucción irreversible.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>299054</v>
+        <v>447365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>[28, 12, 53]</t>
+          <t>[878, 12, 28]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Expend4bles</t>
+          <t>Guardians of the Galaxy Vol. 3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Los mercen4rios</t>
+          <t>Guardianes de la Galaxia: Volumen 3</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cuarta entrega de la saga Los Mercenarios. El veterano mercenario Barney “Esquizo” Ross (Sylvester Stallone) y su equipo de estrellas, formado por los hombres más duros (Jason Statham, Dolph Lundgren, 50 Cent, Megan Fox…), afrontan un nuevo desafío, en una trama cargada de acción. Para superarlo y salir airosos, deberán recurrir a su ingenio, experiencia y a la fuerza bruta que los caracteriza.</t>
+          <t>La querida banda de los Guardianes se instala en Knowhere. Pero sus vidas no tardan en verse alteradas por los ecos del turbulento pasado de Rocket. Peter Quill, aún conmocionado por la pérdida de Gamora, debe reunir a su equipo en una peligrosa misión para salvar la vida de Rocket, una misión que, si no se completa con éxito, podría muy posiblemente conducir al final de los Guardianes tal y como los conocemos.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.2</v>
+        <v>7.966</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1022796</v>
+        <v>575264</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[16, 10751, 14, 12]</t>
+          <t>[28, 12]</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wish</t>
+          <t>Mission: Impossible - Dead Reckoning Part One</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wish: El poder de los deseos</t>
+          <t>Misión: Imposible - Sentencia mortal parte uno</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Asha y una pequeña bola de energía ilimitada llamada Star demuestran que cuando la voluntad de un ser humano valiente se conecta con la magia de las estrellas, pueden suceder cosas maravillosas.</t>
+          <t>Ethan Hunt (Tom Cruise) y la IMF emprenden la misión más peligrosa a la que nunca se han enfrentado: rastrear una nueva y aterradora arma que amenaza a toda la humanidad antes de que caiga en las manos de un enemigo todopoderoso y misterioso.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.332</v>
+        <v>7.546</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1122504</v>
+        <v>1022796</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[27]</t>
+          <t>[16, 10751, 14, 12]</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Exorcism in Utero</t>
+          <t>Wish</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Exorcism in Utero</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Wish: El poder de los deseos</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Asha y una pequeña bola de energía ilimitada llamada Star demuestran que cuando la voluntad de un ser humano valiente se conecta con la magia de las estrellas, pueden suceder cosas maravillosas.</t>
+        </is>
+      </c>
       <c r="F20" t="n">
-        <v>5.8</v>
+        <v>6.335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>792307</v>
+        <v>872585</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[878, 10749, 35]</t>
+          <t>[18, 36]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Poor Things</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pobres criaturas</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bella Baxter es una joven revivida por el brillante y poco ortodoxo científico Dr. Godwin Baxter. Bajo la protección de Baxter, Bella está ansiosa por aprender. Hambrienta de la mundanidad que le falta, Bella se escapa con Duncan Wedderburn, un sofisticado y perverso abogado, en una aventura vertiginosa a través de los continentes. Libre de los prejuicios de su época, Bella se vuelve firme en su propósito de defender la igualdad y la liberación.</t>
+          <t>Película sobre el físico J. Robert Oppenheimer y su papel como desarrollador de la bomba atómica. Basada en el libro 'American Prometheus: The Triumph and Tragedy of J. Robert Oppenheimer' de Kai Bird y Martin J. Sherwin.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7.7</v>
+        <v>8.082000000000001</v>
       </c>
     </row>
   </sheetData>
